--- a/src/test/resources/MoxApiTests/prefixSuffix.xlsx
+++ b/src/test/resources/MoxApiTests/prefixSuffix.xlsx
@@ -603,7 +603,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
